--- a/2-managing-workbooks/sales.xlsx
+++ b/2-managing-workbooks/sales.xlsx
@@ -1,32 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-python-powered-excel\2-managing-workbooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E51C11-D6B0-4D44-A27E-B47F4BCC74B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5147" yWindow="1747" windowWidth="19200" windowHeight="10573" activeTab="1" xr2:uid="{08F6956E-B327-47CD-B70E-8E88A103AFEA}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -57,12 +41,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$#,##0"/>
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -99,23 +94,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="sales" displayName="sales" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="sales" displayName="sales" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Region"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sales"/>
+    <tableColumn id="1" name="Region"/>
+    <tableColumn id="2" name="Sales"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -164,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,27 +183,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,24 +217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,45 +392,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2">
+        <f>SUM(sales[Sales])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="2" width="18.703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1">
-        <f>SUM(sales[Sales])</f>
-        <v>18655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="B3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B1)</f>
-        <v>=SUM(sales[Sales])</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -487,35 +432,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>6480</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2103</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>4336</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>5736</v>
       </c>
     </row>
